--- a/dataflow/templates/excel/adult_sexual_behaviors.xlsx
+++ b/dataflow/templates/excel/adult_sexual_behaviors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\UFO\dataflow\templates\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36B50A-C783-453B-B173-D9BB5B250486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -155,360 +161,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -516,237 +187,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1004,19 +462,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1503,11 +961,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2510b44e-b8a2-4198-8361-1ccaa510ba36">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c556c7a-caaf-4b81-821a-a5c250a5b4de" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046F6A3D51D70604A9265D4E8716BCA48" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="364258600822825420a654801e9ff271">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2510b44e-b8a2-4198-8361-1ccaa510ba36" xmlns:ns3="1c556c7a-caaf-4b81-821a-a5c250a5b4de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9645975feae35fb8bd16574df2008e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1713,36 +1192,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2510b44e-b8a2-4198-8361-1ccaa510ba36">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c556c7a-caaf-4b81-821a-a5c250a5b4de" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93ABEA1-D64F-4715-A160-4C7B49CA42FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC288C89-9FF1-4B56-B998-2B9A5E62FBBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2510b44e-b8a2-4198-8361-1ccaa510ba36"/>
+    <ds:schemaRef ds:uri="1c556c7a-caaf-4b81-821a-a5c250a5b4de"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B67FF8-4FDD-4553-A83C-0CBE1BBCF7D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B67FF8-4FDD-4553-A83C-0CBE1BBCF7D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC288C89-9FF1-4B56-B998-2B9A5E62FBBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93ABEA1-D64F-4715-A160-4C7B49CA42FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2510b44e-b8a2-4198-8361-1ccaa510ba36"/>
+    <ds:schemaRef ds:uri="1c556c7a-caaf-4b81-821a-a5c250a5b4de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>